--- a/data/trans_camb/P1432-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1432-Estudios-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.087243598053473</v>
+        <v>-2.173673298405738</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.099173059085853</v>
+        <v>-2.137538173975949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9573059128631118</v>
+        <v>-1.109139980310481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.369618359625248</v>
+        <v>-1.382268930493246</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.305094590504897</v>
+        <v>-1.099218255986258</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.283595500894981</v>
+        <v>-1.28923750300031</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.289680810430417</v>
+        <v>0.2812701079028032</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4359309857792824</v>
+        <v>0.3110158388529439</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.85922977027984</v>
+        <v>1.809812677995491</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.74963343295192</v>
+        <v>1.940157929430046</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.727595421259274</v>
+        <v>0.7954438491818628</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7900001814459515</v>
+        <v>0.8570662822952632</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6922169434382753</v>
+        <v>-0.7176717886944969</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6797294965089095</v>
+        <v>-0.7038611928566764</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2547522835164311</v>
+        <v>-0.2711740599973266</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3528251332402713</v>
+        <v>-0.3668011412148236</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.390962415808477</v>
+        <v>-0.3393580546671195</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3925087880196531</v>
+        <v>-0.3879646551491601</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2321853225695215</v>
+        <v>0.2352882437610714</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2691842459741405</v>
+        <v>0.1954856022564069</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7392096064503024</v>
+        <v>0.7108780278959954</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7238388240581836</v>
+        <v>0.7262286273397621</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3036819573964289</v>
+        <v>0.3236582522001842</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3535573199178832</v>
+        <v>0.3598792197377343</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3349771393489617</v>
+        <v>-0.326269749477649</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5153521163293919</v>
+        <v>-0.5057810211831469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6258070522951162</v>
+        <v>-0.6871228478594006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2667814061516941</v>
+        <v>-0.2700867886405117</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.3604202580702476</v>
+        <v>-0.3589320308003387</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.2506594575418132</v>
+        <v>-0.2511838520103387</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5858964833115047</v>
+        <v>0.5300994449879978</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1670114536030449</v>
+        <v>0.1663308041455462</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3053508283829777</v>
+        <v>0.2996183294898913</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7865707120651327</v>
+        <v>0.8341164569784157</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2690910621286057</v>
+        <v>0.2876571934309202</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.409796018387695</v>
+        <v>0.3602254447015252</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6601259216984232</v>
+        <v>-0.7006472909576569</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8711039072004709</v>
+        <v>-0.8567274065048402</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8185135272483415</v>
+        <v>-0.8145463763319997</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4219742098233373</v>
+        <v>-0.3942778575919817</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6016019130706047</v>
+        <v>-0.5970960782865418</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.449305775864917</v>
+        <v>-0.4446758338361767</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.587243341599793</v>
+        <v>2.718744677847465</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.424513500205463</v>
+        <v>1.297265233110702</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.494381641955212</v>
+        <v>1.330372499999745</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.759946673370906</v>
+        <v>3.118306390268855</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9347410685523629</v>
+        <v>1.039650017836452</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.477509834701054</v>
+        <v>1.249506124232677</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.492342785743729</v>
+        <v>-2.199030397737566</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.006458335506284</v>
+        <v>-1.955655616768586</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2118481917471251</v>
+        <v>0.2143882913028063</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.7485429191034997</v>
+        <v>-0.7669548500181782</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.8369122426773821</v>
+        <v>-0.8894081218519564</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.1945133703402386</v>
+        <v>-0.189678506234598</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.01758956597966848</v>
+        <v>-0.01578638791629441</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.840883483260342</v>
+        <v>2.034715655829894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.471672356179392</v>
+        <v>1.573647570952263</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.458604317647971</v>
+        <v>0.3790409543400076</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3094167320255449</v>
+        <v>0.2931243626168745</v>
       </c>
     </row>
     <row r="19">
@@ -1040,7 +1040,9 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
-      <c r="G20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1054,7 +1056,9 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
-      <c r="G21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="n">
+        <v>2.344356290314868</v>
+      </c>
       <c r="H21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1095,22 +1099,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9238332846565415</v>
+        <v>-0.9345543024143936</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.046555578828964</v>
+        <v>-1.07047967761779</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4650999328680497</v>
+        <v>-0.5016704927383256</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6336923882475135</v>
+        <v>-0.6291694504309669</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5744458540515817</v>
+        <v>-0.5052901315057569</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.6937292112232355</v>
+        <v>-0.6618936899385469</v>
       </c>
     </row>
     <row r="24">
@@ -1121,22 +1125,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0440633725306793</v>
+        <v>0.02650622241129023</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.1514679661316009</v>
+        <v>-0.137982072699895</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7031000268052913</v>
+        <v>0.7610084082478392</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5260862175626878</v>
+        <v>0.5840009114895582</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2186754035688925</v>
+        <v>0.2536239026173895</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01690589759232667</v>
+        <v>0.09254643580058705</v>
       </c>
     </row>
     <row r="25">
@@ -1173,22 +1177,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6810717159867117</v>
+        <v>-0.6809897733074495</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7362824204721108</v>
+        <v>-0.7616392167495741</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2594483649589261</v>
+        <v>-0.2788904400123122</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3697623464578972</v>
+        <v>-0.3618279974110928</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3680173582248492</v>
+        <v>-0.340817628559157</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4655546229123757</v>
+        <v>-0.4415390368845038</v>
       </c>
     </row>
     <row r="27">
@@ -1199,22 +1203,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.05213633368472206</v>
+        <v>0.02888207438601938</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1527017807411466</v>
+        <v>-0.1527128514812027</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5858132254434629</v>
+        <v>0.6518115447516908</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4459582411017829</v>
+        <v>0.5079848741472137</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1975267011898141</v>
+        <v>0.2499589949426551</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02736643155146047</v>
+        <v>0.08886458091351296</v>
       </c>
     </row>
     <row r="28">
